--- a/src/Gabriel/Deliverable/EEG_Shifted_Correlation_Matrix.xlsx
+++ b/src/Gabriel/Deliverable/EEG_Shifted_Correlation_Matrix.xlsx
@@ -477,46 +477,46 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5853056190670625</v>
+        <v>0.5104649250691508</v>
       </c>
       <c r="D2">
-        <v>0.7552405514086258</v>
+        <v>0.7233556322385769</v>
       </c>
       <c r="E2">
-        <v>0.6064512566695304</v>
+        <v>0.5057390294418187</v>
       </c>
       <c r="F2">
-        <v>0.3489201710896889</v>
+        <v>0.1083173098324182</v>
       </c>
       <c r="G2">
-        <v>0.2305653378887321</v>
+        <v>-0.1163970892303022</v>
       </c>
       <c r="H2">
-        <v>0.3183006276163108</v>
+        <v>0.1536126043573058</v>
       </c>
       <c r="I2">
-        <v>0.2245406833070838</v>
+        <v>-0.0251010488369374</v>
       </c>
       <c r="J2">
-        <v>0.3191181970385205</v>
+        <v>0.1250703882501619</v>
       </c>
       <c r="K2">
-        <v>0.501181010241337</v>
+        <v>0.3996643215959416</v>
       </c>
       <c r="L2">
-        <v>0.6497318716498518</v>
+        <v>0.5871125149530595</v>
       </c>
       <c r="M2">
-        <v>0.7973453976252036</v>
+        <v>0.7747205868475892</v>
       </c>
       <c r="N2">
-        <v>0.7584343566886406</v>
+        <v>0.7123937378756482</v>
       </c>
       <c r="O2">
-        <v>0.9430140601121975</v>
+        <v>0.9360391759887446</v>
       </c>
       <c r="P2">
-        <v>0.09711146263497016</v>
+        <v>0.06703388413220052</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -527,43 +527,43 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5653125153824472</v>
+        <v>0.4735182507697232</v>
       </c>
       <c r="E3">
-        <v>0.7498804360539094</v>
+        <v>0.7384320603883491</v>
       </c>
       <c r="F3">
-        <v>0.4912211431180863</v>
+        <v>0.3832053538601286</v>
       </c>
       <c r="G3">
-        <v>0.3292865221834749</v>
+        <v>0.05771416018395858</v>
       </c>
       <c r="H3">
-        <v>0.2592253611410709</v>
+        <v>0.07536598196678382</v>
       </c>
       <c r="I3">
-        <v>0.1055503829949757</v>
+        <v>-0.2627283503193028</v>
       </c>
       <c r="J3">
-        <v>0.1434075434831742</v>
+        <v>-0.150248250641281</v>
       </c>
       <c r="K3">
-        <v>0.1772107382428766</v>
+        <v>-0.04201050655222459</v>
       </c>
       <c r="L3">
-        <v>0.2499573138914006</v>
+        <v>0.0420347110983251</v>
       </c>
       <c r="M3">
-        <v>0.3768360307375361</v>
+        <v>0.1932637093873051</v>
       </c>
       <c r="N3">
-        <v>0.2484673998982033</v>
+        <v>0.05739492242263098</v>
       </c>
       <c r="O3">
-        <v>0.4137037051211963</v>
+        <v>0.3068630469059259</v>
       </c>
       <c r="P3">
-        <v>-0.1210295267408172</v>
+        <v>-0.1057120563392508</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,40 +574,40 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7653274907913232</v>
+        <v>0.5815948407419296</v>
       </c>
       <c r="F4">
-        <v>0.6440330117869415</v>
+        <v>0.1683111272338748</v>
       </c>
       <c r="G4">
-        <v>0.5952476501765884</v>
+        <v>0.08075229237313496</v>
       </c>
       <c r="H4">
-        <v>0.490684815117902</v>
+        <v>0.106872662720764</v>
       </c>
       <c r="I4">
-        <v>0.5456464855591399</v>
+        <v>0.139062134507934</v>
       </c>
       <c r="J4">
-        <v>0.5630642924411015</v>
+        <v>0.2018692264075439</v>
       </c>
       <c r="K4">
-        <v>0.6404472764014985</v>
+        <v>0.3446997744153577</v>
       </c>
       <c r="L4">
-        <v>0.6672723536563039</v>
+        <v>0.4488833321568892</v>
       </c>
       <c r="M4">
-        <v>0.8331664316438226</v>
+        <v>0.6989563963343225</v>
       </c>
       <c r="N4">
-        <v>0.6242553031325506</v>
+        <v>0.4735459117008906</v>
       </c>
       <c r="O4">
-        <v>0.7077493537344475</v>
+        <v>0.6579358914479844</v>
       </c>
       <c r="P4">
-        <v>0.06197891704293756</v>
+        <v>0.08835831955228235</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -618,37 +618,37 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6798188609625735</v>
+        <v>0.3166443726891301</v>
       </c>
       <c r="G5">
-        <v>0.5440598621052709</v>
+        <v>0.03889375592201257</v>
       </c>
       <c r="H5">
-        <v>0.3957145567068932</v>
+        <v>-0.002106030724339357</v>
       </c>
       <c r="I5">
-        <v>0.3566976801624955</v>
+        <v>-0.2537524400723127</v>
       </c>
       <c r="J5">
-        <v>0.3684480181373341</v>
+        <v>-0.1189776463281428</v>
       </c>
       <c r="K5">
-        <v>0.4006602605720154</v>
+        <v>0.005295257924840565</v>
       </c>
       <c r="L5">
-        <v>0.406626186137958</v>
+        <v>0.04497972503972599</v>
       </c>
       <c r="M5">
-        <v>0.5648600638042923</v>
+        <v>0.2582749292304808</v>
       </c>
       <c r="N5">
-        <v>0.3606854121090956</v>
+        <v>0.09736891141738298</v>
       </c>
       <c r="O5">
-        <v>0.4731286671541775</v>
+        <v>0.3325753595824584</v>
       </c>
       <c r="P5">
-        <v>-0.04987412527887716</v>
+        <v>-0.05726091530797562</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -659,34 +659,34 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8346132078205516</v>
+        <v>0.4478117382092922</v>
       </c>
       <c r="H6">
-        <v>0.6623642225112744</v>
+        <v>0.3260078053257223</v>
       </c>
       <c r="I6">
-        <v>0.6551914668431073</v>
+        <v>0.1141288629224069</v>
       </c>
       <c r="J6">
-        <v>0.6395783851284692</v>
+        <v>0.2058866507256234</v>
       </c>
       <c r="K6">
-        <v>0.6293595776437889</v>
+        <v>0.2839052405011384</v>
       </c>
       <c r="L6">
-        <v>0.5331341304267778</v>
+        <v>0.1468899967379731</v>
       </c>
       <c r="M6">
-        <v>0.5331408115057953</v>
+        <v>0.08789781719038475</v>
       </c>
       <c r="N6">
-        <v>0.3605099734062278</v>
+        <v>-0.009311179259293425</v>
       </c>
       <c r="O6">
-        <v>0.2985531148092775</v>
+        <v>0.007590821169478759</v>
       </c>
       <c r="P6">
-        <v>-1.528933386750766e-07</v>
+        <v>0.01686703050869204</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -697,31 +697,31 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6567804471223097</v>
+        <v>0.3314966159157822</v>
       </c>
       <c r="I7">
-        <v>0.7206348247324939</v>
+        <v>0.3085468373220643</v>
       </c>
       <c r="J7">
-        <v>0.7082904346368503</v>
+        <v>0.3648456315955734</v>
       </c>
       <c r="K7">
-        <v>0.6532166688058347</v>
+        <v>0.2972519644513208</v>
       </c>
       <c r="L7">
-        <v>0.4951797263661125</v>
+        <v>0.05440784859433673</v>
       </c>
       <c r="M7">
-        <v>0.507925095680834</v>
+        <v>0.04901922246282474</v>
       </c>
       <c r="N7">
-        <v>0.3098777039455612</v>
+        <v>-0.08453128532741998</v>
       </c>
       <c r="O7">
-        <v>0.2143684603851394</v>
+        <v>-0.1322647584941255</v>
       </c>
       <c r="P7">
-        <v>-0.06697296963315662</v>
+        <v>-0.06817278732926482</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -732,28 +732,28 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.6445677188701581</v>
+        <v>0.3457065951421486</v>
       </c>
       <c r="J8">
-        <v>0.6673050987052184</v>
+        <v>0.4799415095463707</v>
       </c>
       <c r="K8">
-        <v>0.5738744266370284</v>
+        <v>0.3029207710523865</v>
       </c>
       <c r="L8">
-        <v>0.512649501696649</v>
+        <v>0.2516860973554148</v>
       </c>
       <c r="M8">
-        <v>0.5826860856636619</v>
+        <v>0.3811783426416966</v>
       </c>
       <c r="N8">
-        <v>0.3851663842424289</v>
+        <v>0.1930620340375953</v>
       </c>
       <c r="O8">
-        <v>0.3340480164044396</v>
+        <v>0.1692931569928255</v>
       </c>
       <c r="P8">
-        <v>0.04502935978884419</v>
+        <v>-0.06779520437147191</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -764,25 +764,25 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8666134176513702</v>
+        <v>0.8029695880231121</v>
       </c>
       <c r="K9">
-        <v>0.7240215775649996</v>
+        <v>0.5176673979838983</v>
       </c>
       <c r="L9">
-        <v>0.5942468991017316</v>
+        <v>0.3894764285790648</v>
       </c>
       <c r="M9">
-        <v>0.5916107643120142</v>
+        <v>0.3427623743421981</v>
       </c>
       <c r="N9">
-        <v>0.4146289268442475</v>
+        <v>0.2195989319270962</v>
       </c>
       <c r="O9">
-        <v>0.2854667762940813</v>
+        <v>0.09491040861790445</v>
       </c>
       <c r="P9">
-        <v>0.0521735328480065</v>
+        <v>0.1237064202889188</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -793,22 +793,22 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.827987044750133</v>
+        <v>0.684498687625048</v>
       </c>
       <c r="L10">
-        <v>0.6781728702930696</v>
+        <v>0.5199013155728742</v>
       </c>
       <c r="M10">
-        <v>0.6691770000434607</v>
+        <v>0.4702909441644824</v>
       </c>
       <c r="N10">
-        <v>0.5372380397039059</v>
+        <v>0.395384492894999</v>
       </c>
       <c r="O10">
-        <v>0.3891268332833859</v>
+        <v>0.2413549967551613</v>
       </c>
       <c r="P10">
-        <v>0.06419382234565191</v>
+        <v>0.09452205310732144</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -819,19 +819,19 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.8012146766129576</v>
+        <v>0.7117584481777813</v>
       </c>
       <c r="M11">
-        <v>0.764319006374592</v>
+        <v>0.5956527406219603</v>
       </c>
       <c r="N11">
-        <v>0.7137680289183177</v>
+        <v>0.6550540203292663</v>
       </c>
       <c r="O11">
-        <v>0.5885758778035857</v>
+        <v>0.5209788817477098</v>
       </c>
       <c r="P11">
-        <v>0.09824119187458775</v>
+        <v>0.0637430882359884</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -842,16 +842,16 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8356533295882143</v>
+        <v>0.767226244536081</v>
       </c>
       <c r="N12">
-        <v>0.8431716406781747</v>
+        <v>0.8079969154549849</v>
       </c>
       <c r="O12">
-        <v>0.7411095140461471</v>
+        <v>0.7073950887642011</v>
       </c>
       <c r="P12">
-        <v>0.09622392934268882</v>
+        <v>0.1252977586551207</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -862,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.8229626495195217</v>
+        <v>0.7963264807952301</v>
       </c>
       <c r="O13">
-        <v>0.8380905901402161</v>
+        <v>0.8439223777038533</v>
       </c>
       <c r="P13">
-        <v>0.1191134110624041</v>
+        <v>0.1037459965656436</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -879,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.8642711726299882</v>
+        <v>0.8431034520041651</v>
       </c>
       <c r="P14">
-        <v>0.1295754568450532</v>
+        <v>0.1617483144037699</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.1347718832701812</v>
+        <v>0.08518688770160042</v>
       </c>
     </row>
     <row r="16" spans="1:16">
